--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/67/word_level_predictions_67.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -7747,7 +7753,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -7771,7 +7777,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7805,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -7823,7 +7829,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14640,156 +14646,156 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
+      <c r="F275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="F276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/67/word_level_predictions_67.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -7753,7 +7747,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -7777,7 +7771,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7799,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -7829,7 +7823,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -14646,156 +14640,156 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>15</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
+      <c r="D274" t="n">
         <v>4</v>
       </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>15</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>5</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>15</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>6</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
